--- a/medicine/Médecine vétérinaire/Anomalie_congénitale_oculaire_multiple/Anomalie_congénitale_oculaire_multiple.xlsx
+++ b/medicine/Médecine vétérinaire/Anomalie_congénitale_oculaire_multiple/Anomalie_congénitale_oculaire_multiple.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anomalie_cong%C3%A9nitale_oculaire_multiple</t>
+          <t>Anomalie_congénitale_oculaire_multiple</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'anomalie congénitale oculaire multiple (ACOM) est une maladie génétique du cheval, causée par l'allèle dominant du gène Silver. Elle ne touche donc que les chevaux exprimant ce gène. 
-Rare chez les chevaux d'Europe, elle touche particulièrement la race du Comtois[1]. 
-Les chevaux Comtois hétérozygotes sont faiblement affectés, subissant essentiellement des kystes irido-ciliaires. Les Comtois homozygotes sont plus fortement touchés, à sévérité variable, par des cornea globosa, dysplasies ciliaires, cataractes et décollements de la rétine, qui peuvent très fortement affecter leur vision[2]. 
-Ces anomalies résultent d'un effet pléiotropique de la protéine premelanosome[3].
+Rare chez les chevaux d'Europe, elle touche particulièrement la race du Comtois. 
+Les chevaux Comtois hétérozygotes sont faiblement affectés, subissant essentiellement des kystes irido-ciliaires. Les Comtois homozygotes sont plus fortement touchés, à sévérité variable, par des cornea globosa, dysplasies ciliaires, cataractes et décollements de la rétine, qui peuvent très fortement affecter leur vision. 
+Ces anomalies résultent d'un effet pléiotropique de la protéine premelanosome.
 </t>
         </is>
       </c>
